--- a/Final/Result Data/Sensitivity.xlsx
+++ b/Final/Result Data/Sensitivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive\Documents\GitHub\EngineeringOptimization\Final\Result Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC6C44A-C279-42C4-9AF5-AE25215D4BC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C373C-EDC0-4CE1-86AF-D34BA6788A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,10 +799,412 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1">
+        <v>164230000000</v>
+      </c>
+      <c r="C4">
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.3870553652968E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.1219913848458901E-3</v>
+      </c>
+      <c r="F4">
+        <v>-4.1525979075648103E-2</v>
+      </c>
+      <c r="G4">
+        <v>-4.6244155251141603E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9181598173516001E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.58339726027397E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.4086757990867602E-3</v>
+      </c>
+      <c r="K4">
+        <v>-1.8046995877792699E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.25570776255708E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.3588722263841299E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.1311320660218999E-3</v>
+      </c>
+      <c r="O4">
+        <v>-0.102910288544917</v>
+      </c>
+      <c r="P4">
+        <v>4.1539440237699501E-3</v>
+      </c>
+      <c r="Q4">
+        <v>8.9906849315068496E-3</v>
+      </c>
+      <c r="R4">
+        <v>-0.1029452721423</v>
+      </c>
+      <c r="S4">
+        <v>1.9181598173516001E-2</v>
+      </c>
+      <c r="T4">
+        <v>1.52569464735235E-2</v>
+      </c>
+      <c r="U4">
+        <v>3.4086757990867602E-3</v>
+      </c>
+      <c r="V4">
+        <v>4.0114155251141596E-3</v>
+      </c>
+      <c r="W4">
+        <v>1.25568997654752E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.74086757990868E-3</v>
+      </c>
+      <c r="Y4">
+        <v>9.1264072555598003E-3</v>
+      </c>
+      <c r="Z4">
+        <v>-3.2558976682770698E-2</v>
+      </c>
+      <c r="AA4">
+        <v>3.7186442188197298E-3</v>
+      </c>
+      <c r="AB4">
+        <v>-2.1771033818493199E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-4.2215834938641603E-2</v>
+      </c>
+      <c r="AD4">
+        <v>1.6405517711469399E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.5829404103452099E-2</v>
+      </c>
+      <c r="AF4">
+        <v>3.40028631083289E-3</v>
+      </c>
+      <c r="AG4">
+        <v>-1.3206408740528801E-2</v>
+      </c>
+      <c r="AH4">
+        <v>1.25418188365083E-2</v>
+      </c>
+      <c r="AI4">
+        <v>-9.9778824200913302E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>7.5401903830576399E-3</v>
+      </c>
+      <c r="AK4">
+        <v>-4.0572805722032E-2</v>
+      </c>
+      <c r="AL4">
+        <v>2.69073252821239E-3</v>
+      </c>
+      <c r="AM4">
+        <v>-3.0179831668810001E-2</v>
+      </c>
+      <c r="AN4">
+        <v>-4.7434009869135298E-2</v>
+      </c>
+      <c r="AO4">
+        <v>1.9181598173516001E-2</v>
+      </c>
+      <c r="AP4">
+        <v>1.58339726027397E-2</v>
+      </c>
+      <c r="AQ4">
+        <v>3.40700531503779E-3</v>
+      </c>
+      <c r="AR4">
+        <v>-2.0158506349885801E-2</v>
+      </c>
+      <c r="AS4">
+        <v>8.6508276255707808E-3</v>
+      </c>
+      <c r="AT4">
+        <v>-8.8792496075913198E-3</v>
+      </c>
+      <c r="AU4">
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="AV4">
+        <v>-6.4848153028213507E-2</v>
+      </c>
+      <c r="AW4">
+        <v>2.5333904109589101E-4</v>
+      </c>
+      <c r="AX4">
+        <v>8.9906849315068496E-3</v>
+      </c>
+      <c r="AY4">
+        <v>1.6255844748858401E-2</v>
+      </c>
+      <c r="AZ4">
+        <v>-1.9880901826483999E-2</v>
+      </c>
+      <c r="BA4">
+        <v>-4.9879779059772499E-2</v>
+      </c>
+      <c r="BB4">
+        <v>-2.78413242009132E-2</v>
+      </c>
+      <c r="BC4">
+        <v>4.0114155251141596E-3</v>
+      </c>
+      <c r="BD4">
+        <v>-4.8539113780679197E-2</v>
+      </c>
+      <c r="BE4">
+        <v>1.74086757990868E-3</v>
+      </c>
+      <c r="BF4">
+        <v>-6.77373599722908E-3</v>
+      </c>
+      <c r="BG4">
+        <v>1.7776803652968E-2</v>
+      </c>
+      <c r="BH4">
+        <v>-2.4482454294698598E-3</v>
+      </c>
+      <c r="BI4">
+        <v>8.9906849315068496E-3</v>
+      </c>
+      <c r="BJ4">
+        <v>1.6255844748858401E-2</v>
+      </c>
+      <c r="BK4">
+        <v>-2.4241877692252001E-2</v>
+      </c>
+      <c r="BL4">
+        <v>1.4421000545311599E-2</v>
+      </c>
+      <c r="BM4">
+        <v>-5.00362237442631E-2</v>
+      </c>
+      <c r="BN4">
+        <v>4.0114155251141596E-3</v>
+      </c>
+      <c r="BO4">
+        <v>1.06309867601061E-2</v>
+      </c>
+      <c r="BP4">
+        <v>1.73805257638482E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>47230000000</v>
+      </c>
+      <c r="C5">
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="D5">
+        <v>-2.9314008140917301E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.1595890410958897E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.86373180650685E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.6255844748858401E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.9181598173516001E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.5825603195742999E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.69952223461967E-3</v>
+      </c>
+      <c r="K5">
+        <v>-2.58038134988584E-3</v>
+      </c>
+      <c r="L5">
+        <v>9.2886896790159192E-3</v>
+      </c>
+      <c r="M5">
+        <v>1.67983242365868E-3</v>
+      </c>
+      <c r="N5">
+        <v>9.1215541381962605E-3</v>
+      </c>
+      <c r="O5">
+        <v>-2.7466574091534902E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.1595890410958897E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.3470252568493201E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.6215454463018801E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.9181598173516001E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.58339726027397E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.4086757990867602E-3</v>
+      </c>
+      <c r="V5">
+        <v>-2.82452197488585E-3</v>
+      </c>
+      <c r="W5">
+        <v>1.23011065787157E-2</v>
+      </c>
+      <c r="X5">
+        <v>3.3705898615865598E-4</v>
+      </c>
+      <c r="Y5">
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="Z5">
+        <v>2.0417074855803002E-3</v>
+      </c>
+      <c r="AA5">
+        <v>4.1415322018973902E-3</v>
+      </c>
+      <c r="AB5">
+        <v>7.9191146003294594E-3</v>
+      </c>
+      <c r="AC5">
+        <v>1.62110509705903E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.9158610668407301E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.58339726027397E-2</v>
+      </c>
+      <c r="AF5">
+        <v>3.3491763077899699E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-3.34191284902632E-3</v>
+      </c>
+      <c r="AH5">
+        <v>1.25570776255708E-2</v>
+      </c>
+      <c r="AI5">
+        <v>5.6447188330399601E-4</v>
+      </c>
+      <c r="AJ5">
+        <v>9.0825412159468693E-3</v>
+      </c>
+      <c r="AK5">
+        <v>1.77171326714624E-2</v>
+      </c>
+      <c r="AL5">
+        <v>2.8230392073902099E-3</v>
+      </c>
+      <c r="AM5">
+        <v>8.7465443065068496E-3</v>
+      </c>
+      <c r="AN5">
+        <v>1.4975184405345799E-2</v>
+      </c>
+      <c r="AO5">
+        <v>1.6792038093093702E-2</v>
+      </c>
+      <c r="AP5">
+        <v>1.5773467280123601E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>3.4086757990867602E-3</v>
+      </c>
+      <c r="AR5">
+        <v>-1.2291110910054299E-3</v>
+      </c>
+      <c r="AS5">
+        <v>1.2555698073823099E-2</v>
+      </c>
+      <c r="AT5">
+        <v>1.74086757990868E-3</v>
+      </c>
+      <c r="AU5">
+        <v>7.4968732893427904E-3</v>
+      </c>
+      <c r="AV5">
+        <v>-4.5642620471068297E-2</v>
+      </c>
+      <c r="AW5">
+        <v>3.0052584732234702E-3</v>
+      </c>
+      <c r="AX5">
+        <v>-2.0794471318493199E-2</v>
+      </c>
+      <c r="AY5">
+        <v>-1.6971860530882201E-2</v>
+      </c>
+      <c r="AZ5">
+        <v>-2.7693401826483999E-2</v>
+      </c>
+      <c r="BA5">
+        <v>-4.23325313035103E-2</v>
+      </c>
+      <c r="BB5">
+        <v>-3.6533125890450997E-2</v>
+      </c>
+      <c r="BC5">
+        <v>4.0114155251141596E-3</v>
+      </c>
+      <c r="BD5">
+        <v>-3.73516752660248E-2</v>
+      </c>
+      <c r="BE5">
+        <v>1.74086757990868E-3</v>
+      </c>
+      <c r="BF5">
+        <v>-1.7117023494686499E-2</v>
+      </c>
+      <c r="BG5">
+        <v>1.6556100527968E-2</v>
+      </c>
+      <c r="BH5">
+        <v>1.25146839850654E-4</v>
+      </c>
+      <c r="BI5">
+        <v>7.8319631413210807E-3</v>
+      </c>
+      <c r="BJ5">
+        <v>-4.6000014626141603E-2</v>
+      </c>
+      <c r="BK5">
+        <v>-3.38508484342517E-2</v>
+      </c>
+      <c r="BL5">
+        <v>1.58339726027397E-2</v>
+      </c>
+      <c r="BM5">
+        <v>-4.3306728735472297E-2</v>
+      </c>
+      <c r="BN5">
+        <v>3.9799520810591699E-3</v>
+      </c>
+      <c r="BO5">
+        <v>-4.7544626454394397E-2</v>
+      </c>
+      <c r="BP5">
+        <v>1.74086757990868E-3</v>
       </c>
     </row>
   </sheetData>
